--- a/biology/Botanique/Prunus_padus/Prunus_padus.xlsx
+++ b/biology/Botanique/Prunus_padus/Prunus_padus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cerisier à grappes ou Merisier à grappes (Prunus padus), parfois nommé amaruvier, bois-puant, putier, putiet, putet ou pétafouère, est une espèce de plantes à fleurs de la famille des Rosaceae.
-C'est un arbre, qui malgré son nom possible de « cerisier », donne des fruits présentant peu d'intérêt : ils sont petits (6-8 mm de diamètre), de chair aigre et astringente et le noyau occupe environ 80 % du volume. Néanmoins, leur macération dans l'alcool donne une liqueur encore produite dans les Alpes françaises (région de Gap) portant le nom de « pétafouère » et à laquelle les anciens[Qui ?] attribuaient des propriétés digestives. Ses fruits contiennent deux anthocyanines : la cyanidine-3-rutinoside (60%) et la cyanidine-3-glucoside (40%)[1].
+C'est un arbre, qui malgré son nom possible de « cerisier », donne des fruits présentant peu d'intérêt : ils sont petits (6-8 mm de diamètre), de chair aigre et astringente et le noyau occupe environ 80 % du volume. Néanmoins, leur macération dans l'alcool donne une liqueur encore produite dans les Alpes françaises (région de Gap) portant le nom de « pétafouère » et à laquelle les anciens[Qui ?] attribuaient des propriétés digestives. Ses fruits contiennent deux anthocyanines : la cyanidine-3-rutinoside (60%) et la cyanidine-3-glucoside (40%).
 Ce Prunus est d'ailleurs plus proche des lauriers-cerises (Prunus laurocerasus).
 </t>
         </is>
@@ -513,14 +525,52 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbuste ou arbre (3-10 m) dont le bois a parfois une odeur désagréable après cassure (amande amère).
 Feuilles: alternes, ovales pointues (8-10 cm), dentées, avec 1-2 glandes nectarifères sur le pétiole, près du limbe.
 Fleurs: en longues grappes (10-15) pendantes, parfois dressées, blanches, très odorantes.
 Fruits (juillet-septembre): petit drupes en longues grappes, sphériques (8-9 mm de diamètre), rouge foncé puis noires à maturité, brillantes, jus rouge, un noyau globuleux (6 mm de diamètre).
-Habitat : bois et forêts humides, lisières de bois, haies, bords des cours d'eau, plutôt sur sols siliceux. Se rencontre également dans les parcs et les jardins[2].
-Images de détail
+Habitat : bois et forêts humides, lisières de bois, haies, bords des cours d'eau, plutôt sur sols siliceux. Se rencontre également dans les parcs et les jardins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Prunus_padus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus_padus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Images de détail</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Bourgeons.
 			Écorce du tronc.
 			Baies.
@@ -529,37 +579,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Prunus_padus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Prunus_padus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Propriétés</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit n'est pas toxique mais il n'est pas consommable car sa saveur est aigre-douce. L'amande riche en hétérosides cyanogénétiques, est toxique (comme chez de nombreuses Rosacées).
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -581,12 +600,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aire de répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est indigène en Europe et dans le nord de l'Asie, jusqu'au Japon.
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit n'est pas toxique mais il n'est pas consommable car sa saveur est aigre-douce. L'amande riche en hétérosides cyanogénétiques, est toxique (comme chez de nombreuses Rosacées).
 </t>
         </is>
       </c>
@@ -612,13 +633,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitats</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il pousse dans les sols humides, surtout calcaires.
-Il est, en France, typique de certains habitats, dont les « bois de Frênes et d'Aulnes des rivières médio-européennes à eaux lentes à cerisiers à grappes »[3].
+          <t>Aire de répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est indigène en Europe et dans le nord de l'Asie, jusqu'au Japon.
 </t>
         </is>
       </c>
@@ -644,12 +666,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hôtes</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est notamment colonisé par un hémiptère (un puceron), Rhopalosiphum padi L.[4], qui semble guidé par son odeur[5] et avec lequel il a coévolué[6].
+          <t>Habitats</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pousse dans les sols humides, surtout calcaires.
+Il est, en France, typique de certains habitats, dont les « bois de Frênes et d'Aulnes des rivières médio-européennes à eaux lentes à cerisiers à grappes ».
 </t>
         </is>
       </c>
@@ -675,12 +700,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Menaces</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa zone de distribution naturelle, cette espèce subit la concurrence du cerisier tardif, espèce américaine au comportement invasif.[réf. nécessaire]
+          <t>Hôtes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est notamment colonisé par un hémiptère (un puceron), Rhopalosiphum padi L., qui semble guidé par son odeur et avec lequel il a coévolué.
 </t>
         </is>
       </c>
@@ -706,12 +733,47 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Menaces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa zone de distribution naturelle, cette espèce subit la concurrence du cerisier tardif, espèce américaine au comportement invasif.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Prunus_padus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus_padus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Intérêt médicinal</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a fait l'objet d'études en phytothérapie ; elle a été notamment comparée au Prunellier (Prunus spinosa)[7].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a fait l'objet d'études en phytothérapie ; elle a été notamment comparée au Prunellier (Prunus spinosa).
 </t>
         </is>
       </c>
